--- a/lecNote/10_자연어처리/Korean POS tags comparison chart.xlsx
+++ b/lecNote/10_자연어처리/Korean POS tags comparison chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai\lecNote\10_자연어처리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B29885C-DDD2-4105-A2CC-A48E8200C86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44ADDBE3-8AAF-4945-81DD-4E1E2F418FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="439">
   <si>
     <t>Not provided in KoNLPy</t>
   </si>
@@ -1388,6 +1388,18 @@
   </si>
   <si>
     <t>NC</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>NNG</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>NNP</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>NNB</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1613,7 +1625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1683,24 +1695,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1710,7 +1719,13 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1997,9 +2012,9 @@
   </sheetPr>
   <dimension ref="A1:AK1045"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q5" sqref="Q5:Q8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2110,53 +2125,53 @@
       <c r="AK2" s="9"/>
     </row>
     <row r="3" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="47" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="47" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="47" t="s">
+      <c r="H3" s="45"/>
+      <c r="I3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="42"/>
+      <c r="J3" s="45"/>
       <c r="K3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="45" t="s">
+      <c r="M3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="42"/>
-      <c r="O3" s="45" t="s">
+      <c r="N3" s="45"/>
+      <c r="O3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="45" t="s">
+      <c r="P3" s="45"/>
+      <c r="Q3" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="42"/>
-      <c r="S3" s="48" t="s">
+      <c r="R3" s="45"/>
+      <c r="S3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="42"/>
-      <c r="U3" s="48" t="s">
+      <c r="T3" s="45"/>
+      <c r="U3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="42"/>
-      <c r="W3" s="49" t="s">
+      <c r="V3" s="45"/>
+      <c r="W3" s="48" t="s">
         <v>14</v>
       </c>
       <c r="X3" s="12"/>
@@ -2241,7 +2256,7 @@
       <c r="V4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="W4" s="39"/>
+      <c r="W4" s="38"/>
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
@@ -2258,64 +2273,64 @@
       <c r="AK4" s="15"/>
     </row>
     <row r="5" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="51" t="s">
+        <v>436</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="J5" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="K5" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="43" t="s">
+      <c r="N5" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="44" t="s">
+      <c r="P5" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="R5" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="50" t="s">
-        <v>435</v>
-      </c>
-      <c r="R5" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="S5" s="43" t="s">
+      <c r="S5" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="T5" s="44" t="s">
+      <c r="T5" s="37" t="s">
         <v>27</v>
       </c>
       <c r="U5" s="16" t="s">
@@ -2327,26 +2342,26 @@
       <c r="W5" s="17"/>
     </row>
     <row r="6" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
       <c r="U6" s="16" t="s">
         <v>30</v>
       </c>
@@ -2356,28 +2371,28 @@
       <c r="W6" s="17"/>
     </row>
     <row r="7" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="43" t="s">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="T7" s="44" t="s">
+      <c r="T7" s="37" t="s">
         <v>33</v>
       </c>
       <c r="U7" s="16" t="s">
@@ -2391,26 +2406,26 @@
       </c>
     </row>
     <row r="8" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
       <c r="U8" s="16" t="s">
         <v>36</v>
       </c>
@@ -2420,48 +2435,48 @@
       <c r="W8" s="17"/>
     </row>
     <row r="9" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="40" t="s">
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="51" t="s">
+        <v>437</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="J9" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" s="44" t="s">
+      <c r="N9" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="43" t="s">
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="R9" s="44" t="s">
+      <c r="R9" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="S9" s="43" t="s">
+      <c r="S9" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="T9" s="44" t="s">
+      <c r="T9" s="37" t="s">
         <v>40</v>
       </c>
       <c r="U9" s="16" t="s">
@@ -2475,26 +2490,26 @@
       </c>
     </row>
     <row r="10" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
       <c r="U10" s="16" t="s">
         <v>45</v>
       </c>
@@ -2506,26 +2521,26 @@
       </c>
     </row>
     <row r="11" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
       <c r="U11" s="16" t="s">
         <v>48</v>
       </c>
@@ -2537,26 +2552,26 @@
       </c>
     </row>
     <row r="12" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
       <c r="U12" s="16" t="s">
         <v>51</v>
       </c>
@@ -2568,52 +2583,52 @@
       </c>
     </row>
     <row r="13" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="40" t="s">
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="51" t="s">
+        <v>438</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="J13" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="40" t="s">
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="J13" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="N13" s="44" t="s">
+      <c r="N13" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="43" t="s">
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="R13" s="44" t="s">
+      <c r="R13" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="S13" s="43" t="s">
+      <c r="S13" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="T13" s="44" t="s">
+      <c r="T13" s="37" t="s">
         <v>59</v>
       </c>
       <c r="U13" s="16" t="s">
@@ -2627,26 +2642,26 @@
       </c>
     </row>
     <row r="14" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
       <c r="U14" s="16" t="s">
         <v>63</v>
       </c>
@@ -2656,38 +2671,38 @@
       <c r="W14" s="17"/>
     </row>
     <row r="15" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
       <c r="I15" s="18" t="s">
         <v>67</v>
       </c>
       <c r="J15" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="39"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="38"/>
       <c r="M15" s="16" t="s">
         <v>69</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
       <c r="U15" s="16" t="s">
         <v>71</v>
       </c>
@@ -2699,54 +2714,54 @@
       </c>
     </row>
     <row r="16" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="40" t="s">
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="I16" s="40" t="s">
+      <c r="I16" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="J16" s="37" t="s">
+      <c r="J16" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="K16" s="38"/>
-      <c r="L16" s="43" t="s">
+      <c r="K16" s="40"/>
+      <c r="L16" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="M16" s="43" t="s">
+      <c r="M16" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="N16" s="44" t="s">
+      <c r="N16" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="43" t="s">
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="R16" s="44" t="s">
+      <c r="R16" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="S16" s="43" t="s">
+      <c r="S16" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="T16" s="44" t="s">
+      <c r="T16" s="37" t="s">
         <v>75</v>
       </c>
       <c r="U16" s="16" t="s">
@@ -2760,26 +2775,26 @@
       </c>
     </row>
     <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
       <c r="U17" s="16" t="s">
         <v>80</v>
       </c>
@@ -2791,54 +2806,54 @@
       </c>
     </row>
     <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="40" t="s">
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="37" t="s">
+      <c r="H18" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="I18" s="40" t="s">
+      <c r="I18" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="J18" s="37" t="s">
+      <c r="J18" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="38"/>
-      <c r="L18" s="40" t="s">
+      <c r="K18" s="40"/>
+      <c r="L18" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="M18" s="40" t="s">
+      <c r="M18" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="N18" s="37" t="s">
+      <c r="N18" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="43" t="s">
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="R18" s="44" t="s">
+      <c r="R18" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="S18" s="43" t="s">
+      <c r="S18" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="T18" s="44" t="s">
+      <c r="T18" s="37" t="s">
         <v>84</v>
       </c>
       <c r="U18" s="16" t="s">
@@ -2852,26 +2867,26 @@
       </c>
     </row>
     <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
       <c r="U19" s="16" t="s">
         <v>88</v>
       </c>
@@ -2881,64 +2896,64 @@
       <c r="W19" s="17"/>
     </row>
     <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="37" t="s">
+      <c r="F20" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="H20" s="37" t="s">
+      <c r="H20" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="40" t="s">
+      <c r="I20" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="J20" s="37" t="s">
+      <c r="J20" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="43" t="s">
+      <c r="K20" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="L20" s="40" t="s">
+      <c r="L20" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="M20" s="40" t="s">
+      <c r="M20" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="N20" s="37" t="s">
+      <c r="N20" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="O20" s="43" t="s">
+      <c r="O20" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="P20" s="44" t="s">
+      <c r="P20" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="Q20" s="43" t="s">
+      <c r="Q20" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="R20" s="44" t="s">
+      <c r="R20" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="S20" s="43" t="s">
+      <c r="S20" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="T20" s="44" t="s">
+      <c r="T20" s="37" t="s">
         <v>91</v>
       </c>
       <c r="U20" s="16" t="s">
@@ -2950,26 +2965,26 @@
       <c r="W20" s="17"/>
     </row>
     <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
       <c r="U21" s="16" t="s">
         <v>99</v>
       </c>
@@ -2979,58 +2994,58 @@
       <c r="W21" s="17"/>
     </row>
     <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="37" t="s">
+      <c r="F22" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="40" t="s">
+      <c r="G22" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="H22" s="37" t="s">
+      <c r="H22" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="I22" s="40" t="s">
+      <c r="I22" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="J22" s="37" t="s">
+      <c r="J22" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="K22" s="38"/>
-      <c r="L22" s="40" t="s">
+      <c r="K22" s="40"/>
+      <c r="L22" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="M22" s="40" t="s">
+      <c r="M22" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="N22" s="37" t="s">
+      <c r="N22" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="50" t="s">
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="43" t="s">
         <v>434</v>
       </c>
-      <c r="R22" s="44" t="s">
+      <c r="R22" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="S22" s="43" t="s">
+      <c r="S22" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="T22" s="44" t="s">
+      <c r="T22" s="37" t="s">
         <v>102</v>
       </c>
       <c r="U22" s="16" t="s">
@@ -3042,26 +3057,26 @@
       <c r="W22" s="17"/>
     </row>
     <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
       <c r="U23" s="16" t="s">
         <v>107</v>
       </c>
@@ -3071,10 +3086,10 @@
       <c r="W23" s="17"/>
     </row>
     <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="41" t="s">
         <v>110</v>
       </c>
       <c r="C24" s="18" t="s">
@@ -3085,20 +3100,20 @@
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="22"/>
-      <c r="G24" s="40" t="s">
+      <c r="G24" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="H24" s="37" t="s">
+      <c r="H24" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="I24" s="40" t="s">
+      <c r="I24" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="J24" s="37" t="s">
+      <c r="J24" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="K24" s="38"/>
-      <c r="L24" s="40" t="s">
+      <c r="K24" s="40"/>
+      <c r="L24" s="39" t="s">
         <v>109</v>
       </c>
       <c r="M24" s="16" t="s">
@@ -3107,24 +3122,24 @@
       <c r="N24" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="43" t="s">
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="R24" s="44" t="s">
+      <c r="R24" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="S24" s="43" t="s">
+      <c r="S24" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="T24" s="44" t="s">
+      <c r="T24" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="U24" s="43" t="s">
+      <c r="U24" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="V24" s="44" t="s">
+      <c r="V24" s="37" t="s">
         <v>110</v>
       </c>
       <c r="W24" s="2" t="s">
@@ -3132,8 +3147,8 @@
       </c>
     </row>
     <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="18" t="s">
         <v>115</v>
       </c>
@@ -3142,26 +3157,26 @@
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="22"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="39"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="38"/>
       <c r="M25" s="16" t="s">
         <v>117</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
       <c r="W25" s="17"/>
     </row>
     <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3191,8 +3206,8 @@
       <c r="J26" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="K26" s="38"/>
-      <c r="L26" s="43" t="s">
+      <c r="K26" s="40"/>
+      <c r="L26" s="42" t="s">
         <v>122</v>
       </c>
       <c r="M26" s="18" t="s">
@@ -3201,8 +3216,8 @@
       <c r="N26" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
       <c r="Q26" s="23"/>
       <c r="R26" s="24"/>
       <c r="S26" s="23"/>
@@ -3234,16 +3249,16 @@
       <c r="J27" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
       <c r="M27" s="18" t="s">
         <v>124</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
       <c r="Q27" s="23"/>
       <c r="R27" s="24"/>
       <c r="S27" s="23"/>
@@ -3255,10 +3270,10 @@
       </c>
     </row>
     <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="41" t="s">
         <v>129</v>
       </c>
       <c r="C28" s="18" t="s">
@@ -3267,28 +3282,28 @@
       <c r="D28" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="F28" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="G28" s="40" t="s">
+      <c r="G28" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="H28" s="37" t="s">
+      <c r="H28" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="I28" s="40" t="s">
+      <c r="I28" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="J28" s="37" t="s">
+      <c r="J28" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="K28" s="43" t="s">
+      <c r="K28" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="L28" s="43" t="s">
+      <c r="L28" s="42" t="s">
         <v>135</v>
       </c>
       <c r="M28" s="16" t="s">
@@ -3297,22 +3312,22 @@
       <c r="N28" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="O28" s="43" t="s">
+      <c r="O28" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="P28" s="44" t="s">
+      <c r="P28" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="Q28" s="43" t="s">
+      <c r="Q28" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="R28" s="44" t="s">
+      <c r="R28" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="S28" s="43" t="s">
+      <c r="S28" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="T28" s="44" t="s">
+      <c r="T28" s="37" t="s">
         <v>129</v>
       </c>
       <c r="U28" s="25"/>
@@ -3320,34 +3335,34 @@
       <c r="W28" s="17"/>
     </row>
     <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="40" t="s">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="43" t="s">
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="N29" s="44" t="s">
+      <c r="N29" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
       <c r="U29" s="16" t="s">
         <v>141</v>
       </c>
@@ -3359,26 +3374,26 @@
       </c>
     </row>
     <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
       <c r="U30" s="16" t="s">
         <v>144</v>
       </c>
@@ -3394,10 +3409,10 @@
       <c r="B31" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="41" t="s">
         <v>149</v>
       </c>
       <c r="E31" s="18" t="s">
@@ -3418,8 +3433,8 @@
       <c r="J31" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="K31" s="38"/>
-      <c r="L31" s="43" t="s">
+      <c r="K31" s="40"/>
+      <c r="L31" s="42" t="s">
         <v>152</v>
       </c>
       <c r="M31" s="16" t="s">
@@ -3428,18 +3443,18 @@
       <c r="N31" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="43" t="s">
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="R31" s="44" t="s">
+      <c r="R31" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="S31" s="43" t="s">
+      <c r="S31" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="T31" s="44" t="s">
+      <c r="T31" s="37" t="s">
         <v>149</v>
       </c>
       <c r="U31" s="16" t="s">
@@ -3459,8 +3474,8 @@
       <c r="B32" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
       <c r="E32" s="18" t="s">
         <v>156</v>
       </c>
@@ -3479,20 +3494,20 @@
       <c r="J32" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="K32" s="38"/>
-      <c r="L32" s="39"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="38"/>
       <c r="M32" s="16" t="s">
         <v>158</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
       <c r="U32" s="16" t="s">
         <v>154</v>
       </c>
@@ -3506,24 +3521,24 @@
     <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="23"/>
       <c r="B33" s="24"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="21"/>
       <c r="F33" s="22"/>
       <c r="G33" s="23"/>
       <c r="H33" s="24"/>
       <c r="I33" s="23"/>
       <c r="J33" s="24"/>
-      <c r="K33" s="39"/>
+      <c r="K33" s="38"/>
       <c r="L33" s="25"/>
       <c r="M33" s="25"/>
       <c r="N33" s="26"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38"/>
       <c r="U33" s="16" t="s">
         <v>160</v>
       </c>
@@ -3610,16 +3625,16 @@
       <c r="B35" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="F35" s="37" t="s">
+      <c r="F35" s="41" t="s">
         <v>176</v>
       </c>
       <c r="G35" s="18" t="s">
@@ -3634,10 +3649,10 @@
       <c r="J35" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="K35" s="43" t="s">
+      <c r="K35" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="L35" s="43" t="s">
+      <c r="L35" s="42" t="s">
         <v>178</v>
       </c>
       <c r="M35" s="16" t="s">
@@ -3646,22 +3661,22 @@
       <c r="N35" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="O35" s="43" t="s">
+      <c r="O35" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="P35" s="44" t="s">
+      <c r="P35" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="Q35" s="43" t="s">
+      <c r="Q35" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="R35" s="44" t="s">
+      <c r="R35" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="S35" s="43" t="s">
+      <c r="S35" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="T35" s="44" t="s">
+      <c r="T35" s="37" t="s">
         <v>181</v>
       </c>
       <c r="U35" s="16" t="s">
@@ -3679,10 +3694,10 @@
       <c r="B36" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
       <c r="G36" s="18" t="s">
         <v>183</v>
       </c>
@@ -3695,20 +3710,20 @@
       <c r="J36" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
       <c r="M36" s="16" t="s">
         <v>183</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="38"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="40"/>
       <c r="U36" s="16" t="s">
         <v>185</v>
       </c>
@@ -3724,10 +3739,10 @@
       <c r="B37" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
       <c r="G37" s="18" t="s">
         <v>186</v>
       </c>
@@ -3740,20 +3755,20 @@
       <c r="J37" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
       <c r="M37" s="16" t="s">
         <v>186</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="O37" s="38"/>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="38"/>
-      <c r="S37" s="38"/>
-      <c r="T37" s="38"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="40"/>
       <c r="U37" s="16" t="s">
         <v>188</v>
       </c>
@@ -3769,10 +3784,10 @@
       <c r="B38" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
       <c r="G38" s="18" t="s">
         <v>189</v>
       </c>
@@ -3785,20 +3800,20 @@
       <c r="J38" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
       <c r="M38" s="16" t="s">
         <v>189</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="38"/>
-      <c r="S38" s="38"/>
-      <c r="T38" s="38"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="40"/>
       <c r="U38" s="16" t="s">
         <v>191</v>
       </c>
@@ -3814,10 +3829,10 @@
       <c r="B39" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
       <c r="G39" s="18" t="s">
         <v>192</v>
       </c>
@@ -3830,20 +3845,20 @@
       <c r="J39" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
       <c r="M39" s="16" t="s">
         <v>194</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="O39" s="38"/>
-      <c r="P39" s="38"/>
-      <c r="Q39" s="38"/>
-      <c r="R39" s="38"/>
-      <c r="S39" s="38"/>
-      <c r="T39" s="38"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="40"/>
       <c r="U39" s="16" t="s">
         <v>195</v>
       </c>
@@ -3861,10 +3876,10 @@
       <c r="B40" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
       <c r="G40" s="18" t="s">
         <v>197</v>
       </c>
@@ -3877,20 +3892,20 @@
       <c r="J40" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
       <c r="M40" s="16" t="s">
         <v>199</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="38"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="40"/>
+      <c r="S40" s="40"/>
+      <c r="T40" s="40"/>
       <c r="U40" s="16" t="s">
         <v>200</v>
       </c>
@@ -3906,10 +3921,10 @@
       <c r="B41" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
       <c r="G41" s="18" t="s">
         <v>201</v>
       </c>
@@ -3922,20 +3937,20 @@
       <c r="J41" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="K41" s="38"/>
-      <c r="L41" s="39"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="38"/>
       <c r="M41" s="16" t="s">
         <v>201</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="O41" s="38"/>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="38"/>
-      <c r="S41" s="38"/>
-      <c r="T41" s="38"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="40"/>
+      <c r="T41" s="40"/>
       <c r="U41" s="16" t="s">
         <v>203</v>
       </c>
@@ -3951,10 +3966,10 @@
       <c r="B42" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
       <c r="G42" s="18" t="s">
         <v>180</v>
       </c>
@@ -3967,7 +3982,7 @@
       <c r="J42" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="K42" s="38"/>
+      <c r="K42" s="40"/>
       <c r="L42" s="16" t="s">
         <v>180</v>
       </c>
@@ -3977,12 +3992,12 @@
       <c r="N42" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="38"/>
-      <c r="R42" s="38"/>
-      <c r="S42" s="38"/>
-      <c r="T42" s="38"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="40"/>
       <c r="U42" s="16" t="s">
         <v>205</v>
       </c>
@@ -3996,24 +4011,24 @@
     <row r="43" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
       <c r="B43" s="22"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
       <c r="G43" s="21"/>
       <c r="H43" s="22"/>
       <c r="I43" s="21"/>
       <c r="J43" s="22"/>
-      <c r="K43" s="38"/>
+      <c r="K43" s="40"/>
       <c r="L43" s="25"/>
       <c r="M43" s="25"/>
       <c r="N43" s="26"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="38"/>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="39"/>
-      <c r="S43" s="39"/>
-      <c r="T43" s="39"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="38"/>
+      <c r="S43" s="38"/>
+      <c r="T43" s="38"/>
       <c r="U43" s="16" t="s">
         <v>208</v>
       </c>
@@ -4023,50 +4038,50 @@
       <c r="W43" s="17"/>
     </row>
     <row r="44" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="43" t="s">
+      <c r="A44" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="43" t="s">
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="H44" s="44" t="s">
+      <c r="H44" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="I44" s="43" t="s">
+      <c r="I44" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="J44" s="44" t="s">
+      <c r="J44" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="K44" s="38"/>
-      <c r="L44" s="43" t="s">
+      <c r="K44" s="40"/>
+      <c r="L44" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="M44" s="43" t="s">
+      <c r="M44" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="N44" s="44" t="s">
+      <c r="N44" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="O44" s="38"/>
-      <c r="P44" s="38"/>
-      <c r="Q44" s="43" t="s">
+      <c r="O44" s="40"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="R44" s="44" t="s">
+      <c r="R44" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="S44" s="43" t="s">
+      <c r="S44" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="T44" s="44" t="s">
+      <c r="T44" s="37" t="s">
         <v>211</v>
       </c>
       <c r="U44" s="16" t="s">
@@ -4080,26 +4095,26 @@
       </c>
     </row>
     <row r="45" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="39"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="39"/>
-      <c r="S45" s="39"/>
-      <c r="T45" s="39"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="38"/>
+      <c r="R45" s="38"/>
+      <c r="S45" s="38"/>
+      <c r="T45" s="38"/>
       <c r="U45" s="16" t="s">
         <v>215</v>
       </c>
@@ -4113,20 +4128,20 @@
     <row r="46" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="23"/>
       <c r="B46" s="24"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
       <c r="G46" s="23"/>
       <c r="H46" s="24"/>
       <c r="I46" s="23"/>
       <c r="J46" s="24"/>
-      <c r="K46" s="39"/>
+      <c r="K46" s="38"/>
       <c r="L46" s="25"/>
       <c r="M46" s="23"/>
       <c r="N46" s="24"/>
-      <c r="O46" s="39"/>
-      <c r="P46" s="39"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
       <c r="Q46" s="16" t="s">
         <v>218</v>
       </c>
@@ -4148,40 +4163,40 @@
       <c r="W46" s="17"/>
     </row>
     <row r="47" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="C47" s="43" t="s">
+      <c r="C47" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="D47" s="44" t="s">
+      <c r="D47" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="E47" s="43" t="s">
+      <c r="E47" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="F47" s="44" t="s">
+      <c r="F47" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="G47" s="43" t="s">
+      <c r="G47" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="H47" s="44" t="s">
+      <c r="H47" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="I47" s="43" t="s">
+      <c r="I47" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="J47" s="44" t="s">
+      <c r="J47" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="K47" s="43" t="s">
+      <c r="K47" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="L47" s="43" t="s">
+      <c r="L47" s="42" t="s">
         <v>220</v>
       </c>
       <c r="M47" s="16" t="s">
@@ -4190,123 +4205,123 @@
       <c r="N47" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="O47" s="43" t="s">
+      <c r="O47" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="P47" s="44" t="s">
+      <c r="P47" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="Q47" s="43" t="s">
+      <c r="Q47" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="R47" s="44" t="s">
+      <c r="R47" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="S47" s="43" t="s">
+      <c r="S47" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="T47" s="44" t="s">
+      <c r="T47" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="U47" s="43" t="s">
+      <c r="U47" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="V47" s="44" t="s">
+      <c r="V47" s="37" t="s">
         <v>221</v>
       </c>
       <c r="W47" s="17"/>
     </row>
     <row r="48" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
+      <c r="A48" s="40"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
       <c r="M48" s="16" t="s">
         <v>228</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="O48" s="38"/>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="38"/>
-      <c r="U48" s="38"/>
-      <c r="V48" s="38"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="40"/>
+      <c r="R48" s="40"/>
+      <c r="S48" s="40"/>
+      <c r="T48" s="40"/>
+      <c r="U48" s="40"/>
+      <c r="V48" s="40"/>
       <c r="W48" s="17"/>
     </row>
     <row r="49" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="39"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="39"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="38"/>
       <c r="M49" s="16" t="s">
         <v>230</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="O49" s="38"/>
-      <c r="P49" s="38"/>
-      <c r="Q49" s="39"/>
-      <c r="R49" s="39"/>
-      <c r="S49" s="39"/>
-      <c r="T49" s="39"/>
-      <c r="U49" s="39"/>
-      <c r="V49" s="39"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="38"/>
+      <c r="R49" s="38"/>
+      <c r="S49" s="38"/>
+      <c r="T49" s="38"/>
+      <c r="U49" s="38"/>
+      <c r="V49" s="38"/>
       <c r="W49" s="17"/>
     </row>
     <row r="50" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="40" t="s">
+      <c r="A50" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="B50" s="37" t="s">
+      <c r="B50" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="C50" s="40" t="s">
+      <c r="C50" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="D50" s="37" t="s">
+      <c r="D50" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="E50" s="43" t="s">
+      <c r="E50" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="F50" s="44" t="s">
+      <c r="F50" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="G50" s="40" t="s">
+      <c r="G50" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="H50" s="37" t="s">
+      <c r="H50" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="I50" s="40" t="s">
+      <c r="I50" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="J50" s="37" t="s">
+      <c r="J50" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="K50" s="38"/>
-      <c r="L50" s="43" t="s">
+      <c r="K50" s="40"/>
+      <c r="L50" s="42" t="s">
         <v>232</v>
       </c>
       <c r="M50" s="16" t="s">
@@ -4315,198 +4330,198 @@
       <c r="N50" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="O50" s="38"/>
-      <c r="P50" s="38"/>
-      <c r="Q50" s="43" t="s">
+      <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="R50" s="44" t="s">
+      <c r="R50" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="S50" s="43" t="s">
+      <c r="S50" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="T50" s="44" t="s">
+      <c r="T50" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="U50" s="43" t="s">
+      <c r="U50" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="V50" s="44" t="s">
+      <c r="V50" s="37" t="s">
         <v>233</v>
       </c>
       <c r="W50" s="17"/>
     </row>
     <row r="51" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="38"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
+      <c r="A51" s="40"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
       <c r="M51" s="16" t="s">
         <v>240</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="O51" s="38"/>
-      <c r="P51" s="38"/>
-      <c r="Q51" s="38"/>
-      <c r="R51" s="38"/>
-      <c r="S51" s="38"/>
-      <c r="T51" s="38"/>
-      <c r="U51" s="38"/>
-      <c r="V51" s="38"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="40"/>
+      <c r="R51" s="40"/>
+      <c r="S51" s="40"/>
+      <c r="T51" s="40"/>
+      <c r="U51" s="40"/>
+      <c r="V51" s="40"/>
       <c r="W51" s="17"/>
     </row>
     <row r="52" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="38"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="38"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
       <c r="M52" s="16" t="s">
         <v>242</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="O52" s="38"/>
-      <c r="P52" s="38"/>
-      <c r="Q52" s="38"/>
-      <c r="R52" s="38"/>
-      <c r="S52" s="38"/>
-      <c r="T52" s="38"/>
-      <c r="U52" s="38"/>
-      <c r="V52" s="38"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="40"/>
+      <c r="S52" s="40"/>
+      <c r="T52" s="40"/>
+      <c r="U52" s="40"/>
+      <c r="V52" s="40"/>
       <c r="W52" s="17"/>
     </row>
     <row r="53" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="38"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
       <c r="M53" s="16" t="s">
         <v>244</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="O53" s="38"/>
-      <c r="P53" s="38"/>
-      <c r="Q53" s="38"/>
-      <c r="R53" s="38"/>
-      <c r="S53" s="38"/>
-      <c r="T53" s="38"/>
-      <c r="U53" s="38"/>
-      <c r="V53" s="38"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="40"/>
+      <c r="S53" s="40"/>
+      <c r="T53" s="40"/>
+      <c r="U53" s="40"/>
+      <c r="V53" s="40"/>
       <c r="W53" s="17"/>
     </row>
     <row r="54" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="38"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="38"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
       <c r="M54" s="16" t="s">
         <v>246</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="O54" s="38"/>
-      <c r="P54" s="38"/>
-      <c r="Q54" s="38"/>
-      <c r="R54" s="38"/>
-      <c r="S54" s="38"/>
-      <c r="T54" s="38"/>
-      <c r="U54" s="38"/>
-      <c r="V54" s="38"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="40"/>
+      <c r="S54" s="40"/>
+      <c r="T54" s="40"/>
+      <c r="U54" s="40"/>
+      <c r="V54" s="40"/>
       <c r="W54" s="17"/>
     </row>
     <row r="55" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="39"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="39"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="38"/>
       <c r="M55" s="16" t="s">
         <v>248</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="O55" s="38"/>
-      <c r="P55" s="38"/>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="39"/>
-      <c r="S55" s="39"/>
-      <c r="T55" s="39"/>
-      <c r="U55" s="39"/>
-      <c r="V55" s="39"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="38"/>
+      <c r="R55" s="38"/>
+      <c r="S55" s="38"/>
+      <c r="T55" s="38"/>
+      <c r="U55" s="38"/>
+      <c r="V55" s="38"/>
       <c r="W55" s="17"/>
     </row>
     <row r="56" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="40" t="s">
+      <c r="A56" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="B56" s="37" t="s">
+      <c r="B56" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="40" t="s">
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="H56" s="37" t="s">
+      <c r="H56" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="I56" s="40" t="s">
+      <c r="I56" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="J56" s="37" t="s">
+      <c r="J56" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="K56" s="38"/>
-      <c r="L56" s="43" t="s">
+      <c r="K56" s="40"/>
+      <c r="L56" s="42" t="s">
         <v>250</v>
       </c>
       <c r="M56" s="16" t="s">
@@ -4515,18 +4530,18 @@
       <c r="N56" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="O56" s="38"/>
-      <c r="P56" s="38"/>
-      <c r="Q56" s="40" t="s">
+      <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="R56" s="37" t="s">
+      <c r="R56" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="S56" s="40" t="s">
+      <c r="S56" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="T56" s="37" t="s">
+      <c r="T56" s="41" t="s">
         <v>251</v>
       </c>
       <c r="U56" s="16" t="s">
@@ -4540,30 +4555,30 @@
       </c>
     </row>
     <row r="57" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="38"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="38"/>
+      <c r="A57" s="40"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
       <c r="M57" s="16" t="s">
         <v>257</v>
       </c>
       <c r="N57" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="O57" s="38"/>
-      <c r="P57" s="38"/>
-      <c r="Q57" s="38"/>
-      <c r="R57" s="38"/>
-      <c r="S57" s="38"/>
-      <c r="T57" s="38"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="40"/>
+      <c r="R57" s="40"/>
+      <c r="S57" s="40"/>
+      <c r="T57" s="40"/>
       <c r="U57" s="16" t="s">
         <v>259</v>
       </c>
@@ -4573,30 +4588,30 @@
       <c r="W57" s="17"/>
     </row>
     <row r="58" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="39"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39"/>
-      <c r="K58" s="38"/>
-      <c r="L58" s="39"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="38"/>
       <c r="M58" s="16" t="s">
         <v>261</v>
       </c>
       <c r="N58" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="O58" s="38"/>
-      <c r="P58" s="38"/>
-      <c r="Q58" s="39"/>
-      <c r="R58" s="39"/>
-      <c r="S58" s="39"/>
-      <c r="T58" s="39"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="38"/>
+      <c r="R58" s="38"/>
+      <c r="S58" s="38"/>
+      <c r="T58" s="38"/>
       <c r="U58" s="16" t="s">
         <v>257</v>
       </c>
@@ -4614,10 +4629,10 @@
       <c r="B59" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
       <c r="G59" s="18" t="s">
         <v>265</v>
       </c>
@@ -4630,8 +4645,8 @@
       <c r="J59" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="K59" s="38"/>
-      <c r="L59" s="43" t="s">
+      <c r="K59" s="40"/>
+      <c r="L59" s="42" t="s">
         <v>267</v>
       </c>
       <c r="M59" s="16" t="s">
@@ -4640,18 +4655,18 @@
       <c r="N59" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="O59" s="38"/>
-      <c r="P59" s="38"/>
-      <c r="Q59" s="43" t="s">
+      <c r="O59" s="40"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="42" t="s">
         <v>267</v>
       </c>
-      <c r="R59" s="44" t="s">
+      <c r="R59" s="37" t="s">
         <v>268</v>
       </c>
-      <c r="S59" s="43" t="s">
+      <c r="S59" s="42" t="s">
         <v>267</v>
       </c>
-      <c r="T59" s="44" t="s">
+      <c r="T59" s="37" t="s">
         <v>268</v>
       </c>
       <c r="U59" s="16" t="s">
@@ -4669,10 +4684,10 @@
       <c r="B60" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
       <c r="G60" s="18" t="s">
         <v>270</v>
       </c>
@@ -4685,20 +4700,20 @@
       <c r="J60" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="K60" s="39"/>
-      <c r="L60" s="39"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
       <c r="M60" s="16" t="s">
         <v>272</v>
       </c>
       <c r="N60" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="O60" s="39"/>
-      <c r="P60" s="39"/>
-      <c r="Q60" s="39"/>
-      <c r="R60" s="39"/>
-      <c r="S60" s="39"/>
-      <c r="T60" s="39"/>
+      <c r="O60" s="38"/>
+      <c r="P60" s="38"/>
+      <c r="Q60" s="38"/>
+      <c r="R60" s="38"/>
+      <c r="S60" s="38"/>
+      <c r="T60" s="38"/>
       <c r="U60" s="16" t="s">
         <v>270</v>
       </c>
@@ -4716,10 +4731,10 @@
       <c r="B61" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="C61" s="40" t="s">
+      <c r="C61" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="D61" s="37" t="s">
+      <c r="D61" s="41" t="s">
         <v>278</v>
       </c>
       <c r="E61" s="21"/>
@@ -4736,10 +4751,10 @@
       <c r="J61" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="K61" s="43" t="s">
+      <c r="K61" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="L61" s="43" t="s">
+      <c r="L61" s="42" t="s">
         <v>280</v>
       </c>
       <c r="M61" s="16" t="s">
@@ -4748,28 +4763,28 @@
       <c r="N61" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="O61" s="43" t="s">
+      <c r="O61" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="P61" s="44" t="s">
+      <c r="P61" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="Q61" s="43" t="s">
+      <c r="Q61" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="R61" s="44" t="s">
+      <c r="R61" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="S61" s="43" t="s">
+      <c r="S61" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="T61" s="44" t="s">
+      <c r="T61" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="U61" s="43" t="s">
+      <c r="U61" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="V61" s="44" t="s">
+      <c r="V61" s="37" t="s">
         <v>278</v>
       </c>
       <c r="W61" s="17"/>
@@ -4777,85 +4792,85 @@
     <row r="62" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
       <c r="B62" s="22"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
       <c r="E62" s="21"/>
       <c r="F62" s="22"/>
       <c r="G62" s="21"/>
       <c r="H62" s="22"/>
       <c r="I62" s="21"/>
       <c r="J62" s="22"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="39"/>
+      <c r="K62" s="40"/>
+      <c r="L62" s="38"/>
       <c r="M62" s="16" t="s">
         <v>282</v>
       </c>
       <c r="N62" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="O62" s="38"/>
-      <c r="P62" s="38"/>
-      <c r="Q62" s="39"/>
-      <c r="R62" s="39"/>
-      <c r="S62" s="39"/>
-      <c r="T62" s="39"/>
-      <c r="U62" s="39"/>
-      <c r="V62" s="39"/>
+      <c r="O62" s="40"/>
+      <c r="P62" s="40"/>
+      <c r="Q62" s="38"/>
+      <c r="R62" s="38"/>
+      <c r="S62" s="38"/>
+      <c r="T62" s="38"/>
+      <c r="U62" s="38"/>
+      <c r="V62" s="38"/>
       <c r="W62" s="17"/>
     </row>
     <row r="63" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="43" t="s">
+      <c r="A63" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="B63" s="44" t="s">
+      <c r="B63" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="C63" s="43" t="s">
+      <c r="C63" s="42" t="s">
         <v>286</v>
       </c>
-      <c r="D63" s="44" t="s">
+      <c r="D63" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="E63" s="43" t="s">
+      <c r="E63" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="F63" s="44" t="s">
+      <c r="F63" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="G63" s="43" t="s">
+      <c r="G63" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="H63" s="44" t="s">
+      <c r="H63" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="I63" s="43" t="s">
+      <c r="I63" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="J63" s="44" t="s">
+      <c r="J63" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="K63" s="38"/>
-      <c r="L63" s="43" t="s">
+      <c r="K63" s="40"/>
+      <c r="L63" s="42" t="s">
         <v>290</v>
       </c>
-      <c r="M63" s="43" t="s">
+      <c r="M63" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="N63" s="44" t="s">
+      <c r="N63" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="O63" s="38"/>
-      <c r="P63" s="38"/>
-      <c r="Q63" s="43" t="s">
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="42" t="s">
         <v>290</v>
       </c>
-      <c r="R63" s="44" t="s">
+      <c r="R63" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="S63" s="43" t="s">
+      <c r="S63" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="T63" s="44" t="s">
+      <c r="T63" s="37" t="s">
         <v>285</v>
       </c>
       <c r="U63" s="16" t="s">
@@ -4867,26 +4882,26 @@
       <c r="W63" s="17"/>
     </row>
     <row r="64" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="38"/>
-      <c r="B64" s="38"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="38"/>
-      <c r="K64" s="38"/>
-      <c r="L64" s="38"/>
-      <c r="M64" s="38"/>
-      <c r="N64" s="38"/>
-      <c r="O64" s="38"/>
-      <c r="P64" s="38"/>
-      <c r="Q64" s="38"/>
-      <c r="R64" s="38"/>
-      <c r="S64" s="38"/>
-      <c r="T64" s="38"/>
+      <c r="A64" s="40"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="40"/>
+      <c r="M64" s="40"/>
+      <c r="N64" s="40"/>
+      <c r="O64" s="40"/>
+      <c r="P64" s="40"/>
+      <c r="Q64" s="40"/>
+      <c r="R64" s="40"/>
+      <c r="S64" s="40"/>
+      <c r="T64" s="40"/>
       <c r="U64" s="16" t="s">
         <v>293</v>
       </c>
@@ -4896,26 +4911,26 @@
       <c r="W64" s="17"/>
     </row>
     <row r="65" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="38"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="38"/>
-      <c r="K65" s="38"/>
-      <c r="L65" s="38"/>
-      <c r="M65" s="38"/>
-      <c r="N65" s="38"/>
-      <c r="O65" s="38"/>
-      <c r="P65" s="38"/>
-      <c r="Q65" s="38"/>
-      <c r="R65" s="38"/>
-      <c r="S65" s="38"/>
-      <c r="T65" s="38"/>
+      <c r="A65" s="40"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="40"/>
+      <c r="L65" s="40"/>
+      <c r="M65" s="40"/>
+      <c r="N65" s="40"/>
+      <c r="O65" s="40"/>
+      <c r="P65" s="40"/>
+      <c r="Q65" s="40"/>
+      <c r="R65" s="40"/>
+      <c r="S65" s="40"/>
+      <c r="T65" s="40"/>
       <c r="U65" s="16" t="s">
         <v>295</v>
       </c>
@@ -4925,26 +4940,26 @@
       <c r="W65" s="17"/>
     </row>
     <row r="66" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="38"/>
-      <c r="B66" s="38"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="38"/>
-      <c r="K66" s="38"/>
-      <c r="L66" s="38"/>
-      <c r="M66" s="38"/>
-      <c r="N66" s="38"/>
-      <c r="O66" s="38"/>
-      <c r="P66" s="38"/>
-      <c r="Q66" s="38"/>
-      <c r="R66" s="38"/>
-      <c r="S66" s="38"/>
-      <c r="T66" s="38"/>
+      <c r="A66" s="40"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="40"/>
+      <c r="L66" s="40"/>
+      <c r="M66" s="40"/>
+      <c r="N66" s="40"/>
+      <c r="O66" s="40"/>
+      <c r="P66" s="40"/>
+      <c r="Q66" s="40"/>
+      <c r="R66" s="40"/>
+      <c r="S66" s="40"/>
+      <c r="T66" s="40"/>
       <c r="U66" s="16" t="s">
         <v>296</v>
       </c>
@@ -4954,26 +4969,26 @@
       <c r="W66" s="17"/>
     </row>
     <row r="67" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="38"/>
-      <c r="B67" s="38"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="38"/>
-      <c r="L67" s="38"/>
-      <c r="M67" s="38"/>
-      <c r="N67" s="38"/>
-      <c r="O67" s="38"/>
-      <c r="P67" s="38"/>
-      <c r="Q67" s="38"/>
-      <c r="R67" s="38"/>
-      <c r="S67" s="38"/>
-      <c r="T67" s="38"/>
+      <c r="A67" s="40"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="40"/>
+      <c r="J67" s="40"/>
+      <c r="K67" s="40"/>
+      <c r="L67" s="40"/>
+      <c r="M67" s="40"/>
+      <c r="N67" s="40"/>
+      <c r="O67" s="40"/>
+      <c r="P67" s="40"/>
+      <c r="Q67" s="40"/>
+      <c r="R67" s="40"/>
+      <c r="S67" s="40"/>
+      <c r="T67" s="40"/>
       <c r="U67" s="16" t="s">
         <v>298</v>
       </c>
@@ -4983,26 +4998,26 @@
       <c r="W67" s="17"/>
     </row>
     <row r="68" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="38"/>
-      <c r="B68" s="38"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="38"/>
-      <c r="M68" s="38"/>
-      <c r="N68" s="38"/>
-      <c r="O68" s="38"/>
-      <c r="P68" s="38"/>
-      <c r="Q68" s="38"/>
-      <c r="R68" s="38"/>
-      <c r="S68" s="38"/>
-      <c r="T68" s="38"/>
+      <c r="A68" s="40"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="40"/>
+      <c r="L68" s="40"/>
+      <c r="M68" s="40"/>
+      <c r="N68" s="40"/>
+      <c r="O68" s="40"/>
+      <c r="P68" s="40"/>
+      <c r="Q68" s="40"/>
+      <c r="R68" s="40"/>
+      <c r="S68" s="40"/>
+      <c r="T68" s="40"/>
       <c r="U68" s="16" t="s">
         <v>300</v>
       </c>
@@ -5012,26 +5027,26 @@
       <c r="W68" s="17"/>
     </row>
     <row r="69" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="39"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="39"/>
-      <c r="K69" s="38"/>
-      <c r="L69" s="38"/>
-      <c r="M69" s="39"/>
-      <c r="N69" s="39"/>
-      <c r="O69" s="38"/>
-      <c r="P69" s="38"/>
-      <c r="Q69" s="38"/>
-      <c r="R69" s="38"/>
-      <c r="S69" s="39"/>
-      <c r="T69" s="39"/>
+      <c r="A69" s="38"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="38"/>
+      <c r="K69" s="40"/>
+      <c r="L69" s="40"/>
+      <c r="M69" s="38"/>
+      <c r="N69" s="38"/>
+      <c r="O69" s="40"/>
+      <c r="P69" s="40"/>
+      <c r="Q69" s="40"/>
+      <c r="R69" s="40"/>
+      <c r="S69" s="38"/>
+      <c r="T69" s="38"/>
       <c r="U69" s="16" t="s">
         <v>302</v>
       </c>
@@ -5041,48 +5056,48 @@
       <c r="W69" s="17"/>
     </row>
     <row r="70" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="40" t="s">
+      <c r="A70" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="B70" s="37" t="s">
+      <c r="B70" s="41" t="s">
         <v>305</v>
       </c>
-      <c r="C70" s="40" t="s">
+      <c r="C70" s="39" t="s">
         <v>306</v>
       </c>
-      <c r="D70" s="37" t="s">
+      <c r="D70" s="41" t="s">
         <v>307</v>
       </c>
       <c r="E70" s="21"/>
       <c r="F70" s="22"/>
-      <c r="G70" s="40" t="s">
+      <c r="G70" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="H70" s="37" t="s">
+      <c r="H70" s="41" t="s">
         <v>305</v>
       </c>
-      <c r="I70" s="40" t="s">
+      <c r="I70" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="J70" s="37" t="s">
+      <c r="J70" s="41" t="s">
         <v>305</v>
       </c>
-      <c r="K70" s="38"/>
-      <c r="L70" s="38"/>
-      <c r="M70" s="40" t="s">
+      <c r="K70" s="40"/>
+      <c r="L70" s="40"/>
+      <c r="M70" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="N70" s="37" t="s">
+      <c r="N70" s="41" t="s">
         <v>305</v>
       </c>
-      <c r="O70" s="38"/>
-      <c r="P70" s="38"/>
-      <c r="Q70" s="38"/>
-      <c r="R70" s="38"/>
-      <c r="S70" s="40" t="s">
+      <c r="O70" s="40"/>
+      <c r="P70" s="40"/>
+      <c r="Q70" s="40"/>
+      <c r="R70" s="40"/>
+      <c r="S70" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="T70" s="37" t="s">
+      <c r="T70" s="41" t="s">
         <v>305</v>
       </c>
       <c r="U70" s="16" t="s">
@@ -5096,26 +5111,26 @@
       </c>
     </row>
     <row r="71" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="38"/>
-      <c r="B71" s="38"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="38"/>
+      <c r="A71" s="40"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
       <c r="E71" s="21"/>
       <c r="F71" s="22"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="38"/>
-      <c r="J71" s="38"/>
-      <c r="K71" s="38"/>
-      <c r="L71" s="38"/>
-      <c r="M71" s="38"/>
-      <c r="N71" s="38"/>
-      <c r="O71" s="38"/>
-      <c r="P71" s="38"/>
-      <c r="Q71" s="38"/>
-      <c r="R71" s="38"/>
-      <c r="S71" s="38"/>
-      <c r="T71" s="38"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="40"/>
+      <c r="K71" s="40"/>
+      <c r="L71" s="40"/>
+      <c r="M71" s="40"/>
+      <c r="N71" s="40"/>
+      <c r="O71" s="40"/>
+      <c r="P71" s="40"/>
+      <c r="Q71" s="40"/>
+      <c r="R71" s="40"/>
+      <c r="S71" s="40"/>
+      <c r="T71" s="40"/>
       <c r="U71" s="16" t="s">
         <v>311</v>
       </c>
@@ -5125,26 +5140,26 @@
       <c r="W71" s="17"/>
     </row>
     <row r="72" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="39"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
+      <c r="A72" s="38"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
       <c r="E72" s="21"/>
       <c r="F72" s="22"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="39"/>
-      <c r="J72" s="39"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="38"/>
-      <c r="M72" s="39"/>
-      <c r="N72" s="39"/>
-      <c r="O72" s="38"/>
-      <c r="P72" s="38"/>
-      <c r="Q72" s="38"/>
-      <c r="R72" s="38"/>
-      <c r="S72" s="39"/>
-      <c r="T72" s="39"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="40"/>
+      <c r="L72" s="40"/>
+      <c r="M72" s="38"/>
+      <c r="N72" s="38"/>
+      <c r="O72" s="40"/>
+      <c r="P72" s="40"/>
+      <c r="Q72" s="40"/>
+      <c r="R72" s="40"/>
+      <c r="S72" s="38"/>
+      <c r="T72" s="38"/>
       <c r="U72" s="16" t="s">
         <v>312</v>
       </c>
@@ -5154,48 +5169,48 @@
       <c r="W72" s="17"/>
     </row>
     <row r="73" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="40" t="s">
+      <c r="A73" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="B73" s="37" t="s">
+      <c r="B73" s="41" t="s">
         <v>315</v>
       </c>
-      <c r="C73" s="43" t="s">
+      <c r="C73" s="42" t="s">
         <v>316</v>
       </c>
-      <c r="D73" s="44" t="s">
+      <c r="D73" s="37" t="s">
         <v>317</v>
       </c>
       <c r="E73" s="21"/>
       <c r="F73" s="22"/>
-      <c r="G73" s="40" t="s">
+      <c r="G73" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="H73" s="37" t="s">
+      <c r="H73" s="41" t="s">
         <v>315</v>
       </c>
-      <c r="I73" s="40" t="s">
+      <c r="I73" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="J73" s="37" t="s">
+      <c r="J73" s="41" t="s">
         <v>315</v>
       </c>
-      <c r="K73" s="38"/>
-      <c r="L73" s="38"/>
-      <c r="M73" s="40" t="s">
+      <c r="K73" s="40"/>
+      <c r="L73" s="40"/>
+      <c r="M73" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="N73" s="37" t="s">
+      <c r="N73" s="41" t="s">
         <v>315</v>
       </c>
-      <c r="O73" s="38"/>
-      <c r="P73" s="38"/>
-      <c r="Q73" s="38"/>
-      <c r="R73" s="38"/>
-      <c r="S73" s="43" t="s">
+      <c r="O73" s="40"/>
+      <c r="P73" s="40"/>
+      <c r="Q73" s="40"/>
+      <c r="R73" s="40"/>
+      <c r="S73" s="42" t="s">
         <v>318</v>
       </c>
-      <c r="T73" s="44" t="s">
+      <c r="T73" s="37" t="s">
         <v>319</v>
       </c>
       <c r="U73" s="16" t="s">
@@ -5207,26 +5222,26 @@
       <c r="W73" s="17"/>
     </row>
     <row r="74" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="39"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
+      <c r="A74" s="38"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="38"/>
       <c r="E74" s="21"/>
       <c r="F74" s="22"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="39"/>
-      <c r="J74" s="39"/>
-      <c r="K74" s="38"/>
-      <c r="L74" s="38"/>
-      <c r="M74" s="39"/>
-      <c r="N74" s="39"/>
-      <c r="O74" s="38"/>
-      <c r="P74" s="38"/>
-      <c r="Q74" s="38"/>
-      <c r="R74" s="38"/>
-      <c r="S74" s="39"/>
-      <c r="T74" s="39"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="38"/>
+      <c r="K74" s="40"/>
+      <c r="L74" s="40"/>
+      <c r="M74" s="38"/>
+      <c r="N74" s="38"/>
+      <c r="O74" s="40"/>
+      <c r="P74" s="40"/>
+      <c r="Q74" s="40"/>
+      <c r="R74" s="40"/>
+      <c r="S74" s="38"/>
+      <c r="T74" s="38"/>
       <c r="U74" s="16" t="s">
         <v>322</v>
       </c>
@@ -5238,10 +5253,10 @@
     <row r="75" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="23"/>
       <c r="B75" s="24"/>
-      <c r="C75" s="43" t="s">
+      <c r="C75" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="D75" s="44" t="s">
+      <c r="D75" s="37" t="s">
         <v>324</v>
       </c>
       <c r="E75" s="23"/>
@@ -5250,18 +5265,18 @@
       <c r="H75" s="24"/>
       <c r="I75" s="23"/>
       <c r="J75" s="24"/>
-      <c r="K75" s="38"/>
-      <c r="L75" s="38"/>
+      <c r="K75" s="40"/>
+      <c r="L75" s="40"/>
       <c r="M75" s="25"/>
       <c r="N75" s="26"/>
-      <c r="O75" s="38"/>
-      <c r="P75" s="38"/>
-      <c r="Q75" s="38"/>
-      <c r="R75" s="38"/>
-      <c r="S75" s="43" t="s">
+      <c r="O75" s="40"/>
+      <c r="P75" s="40"/>
+      <c r="Q75" s="40"/>
+      <c r="R75" s="40"/>
+      <c r="S75" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="T75" s="44" t="s">
+      <c r="T75" s="37" t="s">
         <v>325</v>
       </c>
       <c r="U75" s="16" t="s">
@@ -5275,24 +5290,24 @@
     <row r="76" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="23"/>
       <c r="B76" s="24"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38"/>
       <c r="E76" s="23"/>
       <c r="F76" s="24"/>
       <c r="G76" s="23"/>
       <c r="H76" s="24"/>
       <c r="I76" s="23"/>
       <c r="J76" s="24"/>
-      <c r="K76" s="38"/>
-      <c r="L76" s="38"/>
+      <c r="K76" s="40"/>
+      <c r="L76" s="40"/>
       <c r="M76" s="25"/>
       <c r="N76" s="26"/>
-      <c r="O76" s="38"/>
-      <c r="P76" s="38"/>
-      <c r="Q76" s="38"/>
-      <c r="R76" s="38"/>
-      <c r="S76" s="39"/>
-      <c r="T76" s="39"/>
+      <c r="O76" s="40"/>
+      <c r="P76" s="40"/>
+      <c r="Q76" s="40"/>
+      <c r="R76" s="40"/>
+      <c r="S76" s="38"/>
+      <c r="T76" s="38"/>
       <c r="U76" s="16" t="s">
         <v>328</v>
       </c>
@@ -5316,14 +5331,14 @@
       <c r="H77" s="24"/>
       <c r="I77" s="23"/>
       <c r="J77" s="24"/>
-      <c r="K77" s="38"/>
-      <c r="L77" s="39"/>
+      <c r="K77" s="40"/>
+      <c r="L77" s="38"/>
       <c r="M77" s="25"/>
       <c r="N77" s="26"/>
-      <c r="O77" s="38"/>
-      <c r="P77" s="38"/>
-      <c r="Q77" s="38"/>
-      <c r="R77" s="38"/>
+      <c r="O77" s="40"/>
+      <c r="P77" s="40"/>
+      <c r="Q77" s="40"/>
+      <c r="R77" s="40"/>
       <c r="S77" s="25"/>
       <c r="T77" s="27"/>
       <c r="U77" s="25"/>
@@ -5355,7 +5370,7 @@
       <c r="J78" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="K78" s="39"/>
+      <c r="K78" s="38"/>
       <c r="L78" s="18" t="s">
         <v>331</v>
       </c>
@@ -5365,10 +5380,10 @@
       <c r="N78" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="O78" s="39"/>
-      <c r="P78" s="39"/>
-      <c r="Q78" s="39"/>
-      <c r="R78" s="39"/>
+      <c r="O78" s="38"/>
+      <c r="P78" s="38"/>
+      <c r="Q78" s="38"/>
+      <c r="R78" s="38"/>
       <c r="S78" s="23"/>
       <c r="T78" s="24"/>
       <c r="U78" s="23"/>
@@ -5384,16 +5399,16 @@
       <c r="B79" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="C79" s="40" t="s">
+      <c r="C79" s="39" t="s">
         <v>335</v>
       </c>
-      <c r="D79" s="37" t="s">
+      <c r="D79" s="41" t="s">
         <v>336</v>
       </c>
-      <c r="E79" s="40" t="s">
+      <c r="E79" s="39" t="s">
         <v>337</v>
       </c>
-      <c r="F79" s="37" t="s">
+      <c r="F79" s="41" t="s">
         <v>338</v>
       </c>
       <c r="G79" s="18" t="s">
@@ -5408,7 +5423,7 @@
       <c r="J79" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="K79" s="43" t="s">
+      <c r="K79" s="42" t="s">
         <v>339</v>
       </c>
       <c r="L79" s="18" t="s">
@@ -5420,22 +5435,22 @@
       <c r="N79" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="O79" s="43" t="s">
+      <c r="O79" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="P79" s="44" t="s">
+      <c r="P79" s="37" t="s">
         <v>340</v>
       </c>
-      <c r="Q79" s="43" t="s">
+      <c r="Q79" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="R79" s="44" t="s">
+      <c r="R79" s="37" t="s">
         <v>340</v>
       </c>
-      <c r="S79" s="43" t="s">
+      <c r="S79" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="T79" s="44" t="s">
+      <c r="T79" s="37" t="s">
         <v>340</v>
       </c>
       <c r="U79" s="16" t="s">
@@ -5453,10 +5468,10 @@
       <c r="B80" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
       <c r="G80" s="18" t="s">
         <v>342</v>
       </c>
@@ -5469,7 +5484,7 @@
       <c r="J80" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="K80" s="38"/>
+      <c r="K80" s="40"/>
       <c r="L80" s="18" t="s">
         <v>342</v>
       </c>
@@ -5479,12 +5494,12 @@
       <c r="N80" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="O80" s="38"/>
-      <c r="P80" s="38"/>
-      <c r="Q80" s="38"/>
-      <c r="R80" s="38"/>
-      <c r="S80" s="38"/>
-      <c r="T80" s="38"/>
+      <c r="O80" s="40"/>
+      <c r="P80" s="40"/>
+      <c r="Q80" s="40"/>
+      <c r="R80" s="40"/>
+      <c r="S80" s="40"/>
+      <c r="T80" s="40"/>
       <c r="U80" s="16" t="s">
         <v>342</v>
       </c>
@@ -5494,20 +5509,20 @@
       <c r="W80" s="17"/>
     </row>
     <row r="81" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="40" t="s">
+      <c r="A81" s="39" t="s">
         <v>345</v>
       </c>
-      <c r="B81" s="37" t="s">
+      <c r="B81" s="41" t="s">
         <v>346</v>
       </c>
-      <c r="C81" s="38"/>
-      <c r="D81" s="38"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="40" t="s">
+      <c r="C81" s="40"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="39" t="s">
         <v>345</v>
       </c>
-      <c r="H81" s="37" t="s">
+      <c r="H81" s="41" t="s">
         <v>346</v>
       </c>
       <c r="I81" s="18" t="s">
@@ -5516,22 +5531,22 @@
       <c r="J81" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="K81" s="38"/>
-      <c r="L81" s="40" t="s">
+      <c r="K81" s="40"/>
+      <c r="L81" s="39" t="s">
         <v>345</v>
       </c>
-      <c r="M81" s="40" t="s">
+      <c r="M81" s="39" t="s">
         <v>345</v>
       </c>
-      <c r="N81" s="37" t="s">
+      <c r="N81" s="41" t="s">
         <v>346</v>
       </c>
-      <c r="O81" s="38"/>
-      <c r="P81" s="38"/>
-      <c r="Q81" s="38"/>
-      <c r="R81" s="38"/>
-      <c r="S81" s="38"/>
-      <c r="T81" s="38"/>
+      <c r="O81" s="40"/>
+      <c r="P81" s="40"/>
+      <c r="Q81" s="40"/>
+      <c r="R81" s="40"/>
+      <c r="S81" s="40"/>
+      <c r="T81" s="40"/>
       <c r="U81" s="16" t="s">
         <v>349</v>
       </c>
@@ -5541,30 +5556,30 @@
       <c r="W81" s="17"/>
     </row>
     <row r="82" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="39"/>
-      <c r="B82" s="39"/>
-      <c r="C82" s="38"/>
-      <c r="D82" s="38"/>
-      <c r="E82" s="38"/>
-      <c r="F82" s="38"/>
-      <c r="G82" s="39"/>
-      <c r="H82" s="39"/>
+      <c r="A82" s="38"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="40"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="38"/>
       <c r="I82" s="28" t="s">
         <v>351</v>
       </c>
       <c r="J82" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="K82" s="38"/>
-      <c r="L82" s="39"/>
-      <c r="M82" s="39"/>
-      <c r="N82" s="39"/>
-      <c r="O82" s="38"/>
-      <c r="P82" s="38"/>
-      <c r="Q82" s="38"/>
-      <c r="R82" s="38"/>
-      <c r="S82" s="38"/>
-      <c r="T82" s="38"/>
+      <c r="K82" s="40"/>
+      <c r="L82" s="38"/>
+      <c r="M82" s="38"/>
+      <c r="N82" s="38"/>
+      <c r="O82" s="40"/>
+      <c r="P82" s="40"/>
+      <c r="Q82" s="40"/>
+      <c r="R82" s="40"/>
+      <c r="S82" s="40"/>
+      <c r="T82" s="40"/>
       <c r="U82" s="16" t="s">
         <v>353</v>
       </c>
@@ -5580,10 +5595,10 @@
       <c r="B83" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="C83" s="38"/>
-      <c r="D83" s="38"/>
-      <c r="E83" s="38"/>
-      <c r="F83" s="38"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="40"/>
       <c r="G83" s="18" t="s">
         <v>355</v>
       </c>
@@ -5596,7 +5611,7 @@
       <c r="J83" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="K83" s="38"/>
+      <c r="K83" s="40"/>
       <c r="L83" s="18" t="s">
         <v>355</v>
       </c>
@@ -5606,12 +5621,12 @@
       <c r="N83" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="O83" s="38"/>
-      <c r="P83" s="38"/>
-      <c r="Q83" s="38"/>
-      <c r="R83" s="38"/>
-      <c r="S83" s="38"/>
-      <c r="T83" s="38"/>
+      <c r="O83" s="40"/>
+      <c r="P83" s="40"/>
+      <c r="Q83" s="40"/>
+      <c r="R83" s="40"/>
+      <c r="S83" s="40"/>
+      <c r="T83" s="40"/>
       <c r="U83" s="16" t="s">
         <v>355</v>
       </c>
@@ -5627,23 +5642,23 @@
       <c r="B84" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="C84" s="38"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="39"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="38"/>
       <c r="G84" s="18" t="s">
         <v>360</v>
       </c>
       <c r="H84" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="I84" s="40" t="s">
+      <c r="I84" s="39" t="s">
         <v>335</v>
       </c>
-      <c r="J84" s="46" t="s">
+      <c r="J84" s="49" t="s">
         <v>362</v>
       </c>
-      <c r="K84" s="38"/>
+      <c r="K84" s="40"/>
       <c r="L84" s="18" t="s">
         <v>360</v>
       </c>
@@ -5653,84 +5668,84 @@
       <c r="N84" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="O84" s="38"/>
-      <c r="P84" s="38"/>
-      <c r="Q84" s="38"/>
-      <c r="R84" s="38"/>
-      <c r="S84" s="38"/>
-      <c r="T84" s="38"/>
-      <c r="U84" s="43" t="s">
+      <c r="O84" s="40"/>
+      <c r="P84" s="40"/>
+      <c r="Q84" s="40"/>
+      <c r="R84" s="40"/>
+      <c r="S84" s="40"/>
+      <c r="T84" s="40"/>
+      <c r="U84" s="42" t="s">
         <v>335</v>
       </c>
-      <c r="V84" s="44" t="s">
+      <c r="V84" s="37" t="s">
         <v>363</v>
       </c>
       <c r="W84" s="17"/>
     </row>
     <row r="85" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="40" t="s">
+      <c r="A85" s="39" t="s">
         <v>364</v>
       </c>
-      <c r="B85" s="37" t="s">
+      <c r="B85" s="41" t="s">
         <v>365</v>
       </c>
-      <c r="C85" s="38"/>
-      <c r="D85" s="38"/>
-      <c r="E85" s="40" t="s">
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="39" t="s">
         <v>366</v>
       </c>
-      <c r="F85" s="37" t="s">
+      <c r="F85" s="41" t="s">
         <v>367</v>
       </c>
-      <c r="G85" s="40" t="s">
+      <c r="G85" s="39" t="s">
         <v>364</v>
       </c>
-      <c r="H85" s="37" t="s">
+      <c r="H85" s="41" t="s">
         <v>365</v>
       </c>
-      <c r="I85" s="38"/>
-      <c r="J85" s="38"/>
-      <c r="K85" s="38"/>
-      <c r="L85" s="40" t="s">
+      <c r="I85" s="40"/>
+      <c r="J85" s="40"/>
+      <c r="K85" s="40"/>
+      <c r="L85" s="39" t="s">
         <v>364</v>
       </c>
-      <c r="M85" s="40" t="s">
+      <c r="M85" s="39" t="s">
         <v>364</v>
       </c>
-      <c r="N85" s="37" t="s">
+      <c r="N85" s="41" t="s">
         <v>365</v>
       </c>
-      <c r="O85" s="38"/>
-      <c r="P85" s="38"/>
-      <c r="Q85" s="38"/>
-      <c r="R85" s="38"/>
-      <c r="S85" s="38"/>
-      <c r="T85" s="38"/>
-      <c r="U85" s="39"/>
-      <c r="V85" s="39"/>
+      <c r="O85" s="40"/>
+      <c r="P85" s="40"/>
+      <c r="Q85" s="40"/>
+      <c r="R85" s="40"/>
+      <c r="S85" s="40"/>
+      <c r="T85" s="40"/>
+      <c r="U85" s="38"/>
+      <c r="V85" s="38"/>
       <c r="W85" s="17"/>
     </row>
     <row r="86" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="38"/>
-      <c r="B86" s="38"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="38"/>
-      <c r="J86" s="38"/>
-      <c r="K86" s="38"/>
-      <c r="L86" s="38"/>
-      <c r="M86" s="38"/>
-      <c r="N86" s="38"/>
-      <c r="O86" s="38"/>
-      <c r="P86" s="38"/>
-      <c r="Q86" s="38"/>
-      <c r="R86" s="38"/>
-      <c r="S86" s="38"/>
-      <c r="T86" s="38"/>
+      <c r="A86" s="40"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="40"/>
+      <c r="L86" s="40"/>
+      <c r="M86" s="40"/>
+      <c r="N86" s="40"/>
+      <c r="O86" s="40"/>
+      <c r="P86" s="40"/>
+      <c r="Q86" s="40"/>
+      <c r="R86" s="40"/>
+      <c r="S86" s="40"/>
+      <c r="T86" s="40"/>
       <c r="U86" s="16" t="s">
         <v>368</v>
       </c>
@@ -5740,26 +5755,26 @@
       <c r="W86" s="17"/>
     </row>
     <row r="87" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="39"/>
-      <c r="B87" s="39"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="38"/>
-      <c r="G87" s="39"/>
-      <c r="H87" s="39"/>
-      <c r="I87" s="39"/>
-      <c r="J87" s="39"/>
-      <c r="K87" s="39"/>
-      <c r="L87" s="39"/>
-      <c r="M87" s="39"/>
-      <c r="N87" s="39"/>
-      <c r="O87" s="39"/>
-      <c r="P87" s="39"/>
-      <c r="Q87" s="39"/>
-      <c r="R87" s="39"/>
-      <c r="S87" s="39"/>
-      <c r="T87" s="39"/>
+      <c r="A87" s="38"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="38"/>
+      <c r="J87" s="38"/>
+      <c r="K87" s="38"/>
+      <c r="L87" s="38"/>
+      <c r="M87" s="38"/>
+      <c r="N87" s="38"/>
+      <c r="O87" s="38"/>
+      <c r="P87" s="38"/>
+      <c r="Q87" s="38"/>
+      <c r="R87" s="38"/>
+      <c r="S87" s="38"/>
+      <c r="T87" s="38"/>
       <c r="U87" s="16" t="s">
         <v>370</v>
       </c>
@@ -5777,8 +5792,8 @@
       </c>
       <c r="C88" s="21"/>
       <c r="D88" s="22"/>
-      <c r="E88" s="38"/>
-      <c r="F88" s="38"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="40"/>
       <c r="G88" s="18" t="s">
         <v>372</v>
       </c>
@@ -5812,69 +5827,69 @@
       <c r="W88" s="17"/>
     </row>
     <row r="89" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="40" t="s">
+      <c r="A89" s="39" t="s">
         <v>349</v>
       </c>
-      <c r="B89" s="37" t="s">
+      <c r="B89" s="41" t="s">
         <v>375</v>
       </c>
       <c r="C89" s="21"/>
       <c r="D89" s="22"/>
-      <c r="E89" s="39"/>
-      <c r="F89" s="39"/>
-      <c r="G89" s="40" t="s">
+      <c r="E89" s="38"/>
+      <c r="F89" s="38"/>
+      <c r="G89" s="39" t="s">
         <v>349</v>
       </c>
-      <c r="H89" s="37" t="s">
+      <c r="H89" s="41" t="s">
         <v>375</v>
       </c>
-      <c r="I89" s="40" t="s">
+      <c r="I89" s="39" t="s">
         <v>349</v>
       </c>
-      <c r="J89" s="37" t="s">
+      <c r="J89" s="41" t="s">
         <v>375</v>
       </c>
-      <c r="K89" s="43" t="s">
+      <c r="K89" s="42" t="s">
         <v>376</v>
       </c>
-      <c r="L89" s="43" t="s">
+      <c r="L89" s="42" t="s">
         <v>377</v>
       </c>
-      <c r="M89" s="43" t="s">
+      <c r="M89" s="42" t="s">
         <v>377</v>
       </c>
-      <c r="N89" s="44" t="s">
+      <c r="N89" s="37" t="s">
         <v>375</v>
       </c>
-      <c r="O89" s="43" t="s">
+      <c r="O89" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="P89" s="44" t="s">
+      <c r="P89" s="37" t="s">
         <v>375</v>
       </c>
-      <c r="Q89" s="43" t="s">
+      <c r="Q89" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="R89" s="44" t="s">
+      <c r="R89" s="37" t="s">
         <v>375</v>
       </c>
-      <c r="S89" s="43" t="s">
+      <c r="S89" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="T89" s="44" t="s">
+      <c r="T89" s="37" t="s">
         <v>375</v>
       </c>
-      <c r="U89" s="43" t="s">
+      <c r="U89" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="V89" s="44" t="s">
+      <c r="V89" s="37" t="s">
         <v>375</v>
       </c>
       <c r="W89" s="17"/>
     </row>
     <row r="90" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="39"/>
-      <c r="B90" s="39"/>
+      <c r="A90" s="38"/>
+      <c r="B90" s="38"/>
       <c r="C90" s="21"/>
       <c r="D90" s="22"/>
       <c r="E90" s="29" t="s">
@@ -5883,22 +5898,22 @@
       <c r="F90" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="G90" s="39"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="39"/>
-      <c r="J90" s="39"/>
-      <c r="K90" s="38"/>
-      <c r="L90" s="39"/>
-      <c r="M90" s="39"/>
-      <c r="N90" s="39"/>
-      <c r="O90" s="39"/>
-      <c r="P90" s="39"/>
-      <c r="Q90" s="39"/>
-      <c r="R90" s="39"/>
-      <c r="S90" s="39"/>
-      <c r="T90" s="39"/>
-      <c r="U90" s="39"/>
-      <c r="V90" s="39"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="38"/>
+      <c r="K90" s="40"/>
+      <c r="L90" s="38"/>
+      <c r="M90" s="38"/>
+      <c r="N90" s="38"/>
+      <c r="O90" s="38"/>
+      <c r="P90" s="38"/>
+      <c r="Q90" s="38"/>
+      <c r="R90" s="38"/>
+      <c r="S90" s="38"/>
+      <c r="T90" s="38"/>
+      <c r="U90" s="38"/>
+      <c r="V90" s="38"/>
       <c r="W90" s="17"/>
     </row>
     <row r="91" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
@@ -5928,7 +5943,7 @@
       <c r="J91" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="K91" s="39"/>
+      <c r="K91" s="38"/>
       <c r="L91" s="16" t="s">
         <v>383</v>
       </c>
@@ -5955,16 +5970,16 @@
       <c r="B92" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C92" s="43" t="s">
+      <c r="C92" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="D92" s="44" t="s">
+      <c r="D92" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="E92" s="43" t="s">
+      <c r="E92" s="42" t="s">
         <v>387</v>
       </c>
-      <c r="F92" s="44" t="s">
+      <c r="F92" s="37" t="s">
         <v>386</v>
       </c>
       <c r="G92" s="16" t="s">
@@ -5975,7 +5990,7 @@
       </c>
       <c r="I92" s="23"/>
       <c r="J92" s="24"/>
-      <c r="K92" s="43" t="s">
+      <c r="K92" s="42" t="s">
         <v>388</v>
       </c>
       <c r="L92" s="16" t="s">
@@ -6004,10 +6019,10 @@
       <c r="B93" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C93" s="38"/>
-      <c r="D93" s="38"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="38"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="40"/>
+      <c r="F93" s="40"/>
       <c r="G93" s="16" t="s">
         <v>390</v>
       </c>
@@ -6016,7 +6031,7 @@
       </c>
       <c r="I93" s="23"/>
       <c r="J93" s="24"/>
-      <c r="K93" s="38"/>
+      <c r="K93" s="40"/>
       <c r="L93" s="23"/>
       <c r="M93" s="23"/>
       <c r="N93" s="24"/>
@@ -6037,10 +6052,10 @@
       <c r="B94" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C94" s="39"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="39"/>
-      <c r="F94" s="39"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="38"/>
+      <c r="F94" s="38"/>
       <c r="G94" s="16" t="s">
         <v>392</v>
       </c>
@@ -6049,7 +6064,7 @@
       </c>
       <c r="I94" s="23"/>
       <c r="J94" s="24"/>
-      <c r="K94" s="39"/>
+      <c r="K94" s="38"/>
       <c r="L94" s="23"/>
       <c r="M94" s="23"/>
       <c r="N94" s="24"/>
@@ -20470,35 +20485,309 @@
     </row>
   </sheetData>
   <mergeCells count="356">
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="L56:L58"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="K28:K33"/>
-    <mergeCell ref="L28:L30"/>
-    <mergeCell ref="K35:K46"/>
-    <mergeCell ref="L50:L55"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="L35:L41"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="K20:K27"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="D5:D12"/>
+    <mergeCell ref="C5:C12"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="Q13:Q15"/>
+    <mergeCell ref="R13:R15"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="D63:D69"/>
+    <mergeCell ref="C63:C69"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="C79:C87"/>
+    <mergeCell ref="L89:L90"/>
+    <mergeCell ref="K92:K94"/>
+    <mergeCell ref="K89:K91"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="G85:G87"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="F79:F84"/>
+    <mergeCell ref="F85:F89"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="D79:D87"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="P61:P78"/>
+    <mergeCell ref="O61:O78"/>
+    <mergeCell ref="T75:T76"/>
+    <mergeCell ref="S75:S76"/>
+    <mergeCell ref="S79:S87"/>
+    <mergeCell ref="R79:R87"/>
+    <mergeCell ref="Q79:Q87"/>
+    <mergeCell ref="T79:T87"/>
+    <mergeCell ref="R61:R62"/>
+    <mergeCell ref="R59:R60"/>
+    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="E79:E84"/>
+    <mergeCell ref="E85:E89"/>
+    <mergeCell ref="E50:E60"/>
+    <mergeCell ref="F50:F60"/>
+    <mergeCell ref="E35:E46"/>
+    <mergeCell ref="F35:F46"/>
+    <mergeCell ref="E63:E69"/>
+    <mergeCell ref="I63:I69"/>
+    <mergeCell ref="H63:H69"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="D35:D46"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="G50:G55"/>
+    <mergeCell ref="F63:F69"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="U47:U49"/>
+    <mergeCell ref="T59:T60"/>
+    <mergeCell ref="T50:T55"/>
+    <mergeCell ref="T56:T58"/>
+    <mergeCell ref="U50:U55"/>
+    <mergeCell ref="V50:V55"/>
+    <mergeCell ref="T61:T62"/>
+    <mergeCell ref="T47:T49"/>
+    <mergeCell ref="U61:U62"/>
+    <mergeCell ref="V61:V62"/>
+    <mergeCell ref="G63:G69"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="D50:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="Q63:Q78"/>
+    <mergeCell ref="N89:N90"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="V89:V90"/>
+    <mergeCell ref="U89:U90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I84:I87"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="R89:R90"/>
+    <mergeCell ref="S89:S90"/>
+    <mergeCell ref="V84:V85"/>
+    <mergeCell ref="U84:U85"/>
+    <mergeCell ref="Q89:Q90"/>
+    <mergeCell ref="T89:T90"/>
+    <mergeCell ref="O89:O90"/>
+    <mergeCell ref="P89:P90"/>
+    <mergeCell ref="J84:J87"/>
+    <mergeCell ref="L85:L87"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C50:C60"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C35:C46"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="T13:T15"/>
+    <mergeCell ref="S13:S15"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q5:Q8"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R5:R8"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="M5:M8"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K5:K19"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O5:O19"/>
+    <mergeCell ref="P5:P19"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="E5:E19"/>
+    <mergeCell ref="F5:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="N5:N8"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="L5:L15"/>
+    <mergeCell ref="Q28:Q30"/>
+    <mergeCell ref="R28:R30"/>
+    <mergeCell ref="R31:R33"/>
+    <mergeCell ref="P35:P46"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="P20:P27"/>
+    <mergeCell ref="O20:O27"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="R44:R45"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="S28:S30"/>
+    <mergeCell ref="S31:S33"/>
+    <mergeCell ref="T28:T30"/>
+    <mergeCell ref="T31:T33"/>
+    <mergeCell ref="R63:R78"/>
+    <mergeCell ref="S73:S74"/>
+    <mergeCell ref="S70:S72"/>
+    <mergeCell ref="P79:P87"/>
+    <mergeCell ref="O79:O87"/>
+    <mergeCell ref="P28:P33"/>
+    <mergeCell ref="O28:O33"/>
+    <mergeCell ref="S59:S60"/>
+    <mergeCell ref="S50:S55"/>
+    <mergeCell ref="S56:S58"/>
+    <mergeCell ref="R56:R58"/>
+    <mergeCell ref="P47:P60"/>
+    <mergeCell ref="Q50:Q55"/>
+    <mergeCell ref="R50:R55"/>
+    <mergeCell ref="Q56:Q58"/>
+    <mergeCell ref="R47:R49"/>
+    <mergeCell ref="Q47:Q49"/>
+    <mergeCell ref="R35:R43"/>
+    <mergeCell ref="Q35:Q43"/>
+    <mergeCell ref="O35:O46"/>
+    <mergeCell ref="N63:N69"/>
+    <mergeCell ref="H50:H55"/>
+    <mergeCell ref="T73:T74"/>
+    <mergeCell ref="T70:T72"/>
+    <mergeCell ref="S61:S62"/>
+    <mergeCell ref="T63:T69"/>
+    <mergeCell ref="S63:S69"/>
+    <mergeCell ref="T35:T43"/>
+    <mergeCell ref="S35:S43"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="J56:J58"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="K47:K60"/>
+    <mergeCell ref="I50:I55"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="S47:S49"/>
+    <mergeCell ref="O47:O60"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="J50:J55"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="L47:L49"/>
+    <mergeCell ref="Q61:Q62"/>
     <mergeCell ref="M29:M30"/>
     <mergeCell ref="N29:N30"/>
     <mergeCell ref="Q31:Q33"/>
@@ -20523,309 +20812,35 @@
     <mergeCell ref="M70:M72"/>
     <mergeCell ref="N70:N72"/>
     <mergeCell ref="M63:M69"/>
-    <mergeCell ref="N63:N69"/>
-    <mergeCell ref="H50:H55"/>
-    <mergeCell ref="T73:T74"/>
-    <mergeCell ref="T70:T72"/>
-    <mergeCell ref="S61:S62"/>
-    <mergeCell ref="T63:T69"/>
-    <mergeCell ref="S63:S69"/>
-    <mergeCell ref="T35:T43"/>
-    <mergeCell ref="S35:S43"/>
-    <mergeCell ref="S28:S30"/>
-    <mergeCell ref="S31:S33"/>
-    <mergeCell ref="T28:T30"/>
-    <mergeCell ref="T31:T33"/>
-    <mergeCell ref="R63:R78"/>
-    <mergeCell ref="S73:S74"/>
-    <mergeCell ref="S70:S72"/>
-    <mergeCell ref="P79:P87"/>
-    <mergeCell ref="O79:O87"/>
-    <mergeCell ref="P28:P33"/>
-    <mergeCell ref="O28:O33"/>
-    <mergeCell ref="S59:S60"/>
-    <mergeCell ref="S50:S55"/>
-    <mergeCell ref="S56:S58"/>
-    <mergeCell ref="R56:R58"/>
-    <mergeCell ref="P47:P60"/>
-    <mergeCell ref="Q50:Q55"/>
-    <mergeCell ref="R50:R55"/>
-    <mergeCell ref="Q56:Q58"/>
-    <mergeCell ref="R47:R49"/>
-    <mergeCell ref="Q47:Q49"/>
-    <mergeCell ref="R35:R43"/>
-    <mergeCell ref="Q35:Q43"/>
-    <mergeCell ref="O35:O46"/>
-    <mergeCell ref="Q28:Q30"/>
-    <mergeCell ref="R28:R30"/>
-    <mergeCell ref="R31:R33"/>
-    <mergeCell ref="P35:P46"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="P20:P27"/>
-    <mergeCell ref="O20:O27"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="E5:E19"/>
-    <mergeCell ref="F5:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="N5:N8"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="H9:H12"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J9:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="L5:L15"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q5:Q8"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="R5:R8"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="M5:M8"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K5:K19"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O5:O19"/>
-    <mergeCell ref="P5:P19"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="J5:J8"/>
-    <mergeCell ref="I5:I8"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="S13:S15"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C50:C60"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C35:C46"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="N89:N90"/>
-    <mergeCell ref="M89:M90"/>
-    <mergeCell ref="V89:V90"/>
-    <mergeCell ref="U89:U90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I84:I87"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="R89:R90"/>
-    <mergeCell ref="S89:S90"/>
-    <mergeCell ref="V84:V85"/>
-    <mergeCell ref="U84:U85"/>
-    <mergeCell ref="Q89:Q90"/>
-    <mergeCell ref="T89:T90"/>
-    <mergeCell ref="O89:O90"/>
-    <mergeCell ref="P89:P90"/>
-    <mergeCell ref="J84:J87"/>
-    <mergeCell ref="L85:L87"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="R44:R45"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J56:J58"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="K47:K60"/>
-    <mergeCell ref="I50:I55"/>
-    <mergeCell ref="I56:I58"/>
-    <mergeCell ref="S47:S49"/>
-    <mergeCell ref="O47:O60"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="J50:J55"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="L47:L49"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="Q61:Q62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="G50:G55"/>
-    <mergeCell ref="F63:F69"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="U47:U49"/>
-    <mergeCell ref="T59:T60"/>
-    <mergeCell ref="T50:T55"/>
-    <mergeCell ref="T56:T58"/>
-    <mergeCell ref="U50:U55"/>
-    <mergeCell ref="V50:V55"/>
-    <mergeCell ref="T61:T62"/>
-    <mergeCell ref="T47:T49"/>
-    <mergeCell ref="U61:U62"/>
-    <mergeCell ref="V61:V62"/>
-    <mergeCell ref="G63:G69"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="D50:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="Q63:Q78"/>
-    <mergeCell ref="D35:D46"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="P61:P78"/>
-    <mergeCell ref="O61:O78"/>
-    <mergeCell ref="T75:T76"/>
-    <mergeCell ref="S75:S76"/>
-    <mergeCell ref="S79:S87"/>
-    <mergeCell ref="R79:R87"/>
-    <mergeCell ref="Q79:Q87"/>
-    <mergeCell ref="T79:T87"/>
-    <mergeCell ref="R61:R62"/>
-    <mergeCell ref="R59:R60"/>
-    <mergeCell ref="Q59:Q60"/>
-    <mergeCell ref="E79:E84"/>
-    <mergeCell ref="E85:E89"/>
-    <mergeCell ref="E50:E60"/>
-    <mergeCell ref="F50:F60"/>
-    <mergeCell ref="E35:E46"/>
-    <mergeCell ref="F35:F46"/>
-    <mergeCell ref="E63:E69"/>
-    <mergeCell ref="I63:I69"/>
-    <mergeCell ref="H63:H69"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="H85:H87"/>
-    <mergeCell ref="G85:G87"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="F79:F84"/>
-    <mergeCell ref="F85:F89"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="D79:D87"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="F92:F94"/>
-    <mergeCell ref="C79:C87"/>
-    <mergeCell ref="L89:L90"/>
-    <mergeCell ref="K92:K94"/>
-    <mergeCell ref="K89:K91"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="B63:B69"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G70:G72"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="D63:D69"/>
-    <mergeCell ref="C63:C69"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="Q13:Q15"/>
-    <mergeCell ref="R13:R15"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="D5:D12"/>
-    <mergeCell ref="C5:C12"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="K20:K27"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="L56:L58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="K28:K33"/>
+    <mergeCell ref="L28:L30"/>
+    <mergeCell ref="K35:K46"/>
+    <mergeCell ref="L50:L55"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="L35:L41"/>
+    <mergeCell ref="H28:H30"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
